--- a/data_year/zb/卫生/农村居民主要疾病死亡率及死因构成/农村居民主要疾病粗死亡率位次.xlsx
+++ b/data_year/zb/卫生/农村居民主要疾病死亡率及死因构成/农村居民主要疾病粗死亡率位次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -733,50 +733,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
         <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" t="n">
         <v>19</v>
@@ -785,10 +785,10 @@
         <v>20</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>5</v>
@@ -797,16 +797,16 @@
         <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
         <v>19</v>
@@ -827,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
         <v>5</v>
@@ -839,28 +839,28 @@
         <v>6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR2" t="n">
         <v>3</v>
@@ -872,16 +872,16 @@
         <v>5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -890,74 +890,74 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="BE2" t="n">
         <v>18</v>
       </c>
-      <c r="BB2" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BE2" t="n">
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
         <v>17</v>
       </c>
-      <c r="BF2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>18</v>
-      </c>
       <c r="BH2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>14</v>
@@ -984,13 +984,13 @@
         <v>8</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>19</v>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
@@ -1026,25 +1026,25 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>3</v>
@@ -1056,16 +1056,16 @@
         <v>5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>6</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>17</v>
@@ -1074,68 +1074,68 @@
         <v>2</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BC3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG3" t="n">
         <v>18</v>
       </c>
-      <c r="BF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>17</v>
-      </c>
       <c r="BH3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -1144,7 +1144,7 @@
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" t="n">
         <v>19</v>
@@ -1162,16 +1162,16 @@
         <v>5</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>16</v>
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>19</v>
@@ -1204,28 +1204,28 @@
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1240,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>11</v>
@@ -1261,7 +1261,7 @@
         <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1279,65 +1279,57 @@
         <v>18</v>
       </c>
       <c r="BH4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>16</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="n">
         <v>17</v>
       </c>
-      <c r="O5" t="n">
-        <v>13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>20</v>
-      </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -1346,40 +1338,38 @@
         <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
         <v>7</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>3</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
         <v>5</v>
@@ -1388,31 +1378,27 @@
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="n">
         <v>8</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
-      <c r="AO5" t="n">
-        <v>14</v>
-      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>3</v>
@@ -1424,59 +1410,55 @@
         <v>5</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
         <v>10</v>
       </c>
       <c r="BD5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BE5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BF5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>15</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="BH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -1487,13 +1469,13 @@
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
@@ -1534,7 +1516,7 @@
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
         <v>2</v>
@@ -1544,16 +1526,16 @@
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
         <v>5</v>
@@ -1565,14 +1547,14 @@
         <v>6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
         <v>13</v>
       </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
@@ -1622,38 +1604,38 @@
         <v>11</v>
       </c>
       <c r="BE6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -1670,7 +1652,7 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" t="n">
         <v>16</v>
@@ -1700,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>2</v>
@@ -1710,10 +1692,10 @@
       </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
@@ -1728,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
@@ -1745,7 +1727,7 @@
       </c>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1769,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>14</v>
@@ -1788,25 +1770,23 @@
         <v>11</v>
       </c>
       <c r="BE7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BF7" t="n">
         <v>2</v>
       </c>
       <c r="BG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>13</v>
       </c>
@@ -1821,9 +1801,7 @@
       <c r="H8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>14</v>
       </c>
@@ -1885,20 +1863,18 @@
         <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8" t="n">
         <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>7</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>8</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
@@ -1948,7 +1924,7 @@
       </c>
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>11</v>
@@ -1957,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="BF8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG8" t="n">
         <v>15</v>
@@ -1967,12 +1943,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
@@ -1985,7 +1963,9 @@
       <c r="H9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
       <c r="J9" t="n">
         <v>14</v>
       </c>
@@ -2053,12 +2033,14 @@
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>7</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>8</v>
+      </c>
       <c r="AK9" t="n">
         <v>13</v>
       </c>
@@ -2108,13 +2090,13 @@
       </c>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>11</v>
       </c>
       <c r="BE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF9" t="n">
         <v>1</v>
@@ -2127,7 +2109,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2145,13 +2127,13 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
@@ -2162,7 +2144,7 @@
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P10" t="n">
         <v>16</v>
@@ -2202,16 +2184,16 @@
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG10" t="n">
         <v>5</v>
@@ -2226,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="n">
@@ -2264,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
         <v>2</v>
@@ -2280,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="BE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BF10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG10" t="n">
         <v>15</v>
@@ -2293,14 +2275,12 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -2311,13 +2291,11 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>13</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -2328,7 +2306,7 @@
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" t="n">
         <v>16</v>
@@ -2364,20 +2342,20 @@
         <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD11" t="n">
         <v>17</v>
       </c>
-      <c r="AD11" t="n">
-        <v>16</v>
-      </c>
       <c r="AE11" t="n">
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="n">
         <v>5</v>
@@ -2388,9 +2366,7 @@
       <c r="AI11" t="n">
         <v>7</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>8</v>
-      </c>
+      <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="n">
         <v>14</v>
       </c>
@@ -2403,7 +2379,7 @@
       </c>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
         <v>16</v>
@@ -2418,19 +2394,19 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2449,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="BF11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG11" t="n">
         <v>15</v>
@@ -2459,12 +2435,12 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -2475,7 +2451,7 @@
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -2530,16 +2506,16 @@
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG12" t="n">
         <v>5</v>
@@ -2552,7 +2528,7 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="n">
@@ -2563,7 +2539,7 @@
       </c>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
         <v>16</v>
@@ -2596,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="n">
@@ -2609,20 +2585,22 @@
         <v>12</v>
       </c>
       <c r="BF12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
       <c r="C13" t="n">
         <v>14</v>
       </c>
@@ -2637,7 +2615,9 @@
       <c r="H13" t="n">
         <v>15</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
       <c r="J13" t="n">
         <v>14</v>
       </c>
@@ -2690,11 +2670,11 @@
       </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="n">
         <v>17</v>
       </c>
-      <c r="AD13" t="n">
-        <v>16</v>
-      </c>
       <c r="AE13" t="n">
         <v>1</v>
       </c>
@@ -2710,9 +2690,11 @@
       <c r="AI13" t="n">
         <v>7</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>10</v>
+      </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="n">
@@ -2723,7 +2705,7 @@
       </c>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>16</v>
@@ -2738,13 +2720,13 @@
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>6</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX13" t="n">
         <v>11</v>
